--- a/instances/I1_S4_mean.xlsx
+++ b/instances/I1_S4_mean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnrsc-my.sharepoint.com/personal/giuseppe_stecca_cnr_it/Documents/IASI/Research/2024/StochasticWasteCollection/code/instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STECCAGIUSEPPE\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{F467160D-D703-4472-8511-AD0996037EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9CC98D-B37E-4236-A714-4AD206A032B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B8DD2-1C39-4774-8688-9A81FF06B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="1920" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>m</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>service_time</t>
   </si>
 </sst>
 </file>
@@ -179,12 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -200,10 +204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,13 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -563,6 +566,14 @@
       </c>
       <c r="B11">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -573,26 +584,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D72AB1-15C4-4813-BDB5-1C4D16A67F0D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -602,114 +619,147 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>9.08</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8.44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>5.05</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>2.82</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4.21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>7.56</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>6.18</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>2.5099999999999998</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>9.1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7.84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>9.83</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>8.1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>9.02</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5.83</v>
       </c>
     </row>
@@ -997,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA4EAAB-F661-46EA-B43C-95D0BF318470}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
